--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,23 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
     <t>TC101</t>
   </si>
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>ankit3</t>
-  </si>
-  <si>
     <t>Address1</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>user02</t>
-  </si>
-  <si>
     <t>TM1234</t>
   </si>
   <si>
@@ -61,13 +52,14 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>user04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -424,116 +416,114 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1"/>
     <row r="10" spans="1:7" s="2" customFormat="1"/>
